--- a/Cookie/SameSite/SameSite.xlsx
+++ b/Cookie/SameSite/SameSite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kanakaya\git\202x\Cookie\SameSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5BDA46-B202-4A1A-B477-D6515AC0082A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD28ADB4-011D-4870-A334-637E0D81B70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="1620" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>me.example --- you.example [HTTP Redirection] --- me.example</t>
     <phoneticPr fontId="1"/>
@@ -60,39 +60,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>you.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clinet Pull@you.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clinet Pull@me.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(n/a)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>reloading</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Chrome 117</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Firefox 117</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>end</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -113,15 +89,100 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HTTP Redirect@you.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HTTP Redirect@me.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>redirect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bookmark</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP Redirect @ you.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clinet Pull @ you.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP Redirect @ me.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clinet Pull @ me.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>click link
+@
+me.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>click link
+@
+you.example</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -154,7 +215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,14 +240,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -217,23 +272,40 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,23 +316,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,9 +632,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="7" max="7" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="10" spans="7:7">
@@ -596,290 +680,379 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E1EE65-A03D-4505-8A39-DE9BE2D7984B}">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="7" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="3" width="33.58203125" customWidth="1"/>
+    <col min="4" max="4" width="15.58203125" customWidth="1"/>
+    <col min="5" max="5" width="12.58203125" customWidth="1"/>
+    <col min="6" max="6" width="6.58203125" customWidth="1"/>
+    <col min="7" max="8" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="60" customHeight="1">
-      <c r="B2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="2:7" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="2:8" ht="60" customHeight="1">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="2:8" ht="40" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="40" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="39.950000000000003" customHeight="1">
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="40" customHeight="1">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="39.950000000000003" customHeight="1">
+      <c r="D5" s="7"/>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="40" customHeight="1">
       <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="39.950000000000003" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="40" customHeight="1">
       <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="60" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="40" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="39.950000000000003" customHeight="1">
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="39.950000000000003" customHeight="1">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="7"/>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="7"/>
-      <c r="C11" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>19</v>
+    </row>
+    <row r="11" spans="2:8" ht="40" customHeight="1">
+      <c r="B11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="39.950000000000003" customHeight="1">
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="40" customHeight="1">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="39.950000000000003" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="40" customHeight="1">
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>19</v>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="39.950000000000003" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="40" customHeight="1">
       <c r="B14" s="7"/>
       <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="39.950000000000003" customHeight="1">
-      <c r="B15" s="7"/>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="40" customHeight="1">
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="39.950000000000003" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="40" customHeight="1">
       <c r="B16" s="7"/>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="39.950000000000003" customHeight="1">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="40" customHeight="1">
       <c r="B17" s="7"/>
       <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>19</v>
+        <v>35</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="40" customHeight="1">
+      <c r="B18" s="7"/>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="40" customHeight="1">
+      <c r="B19" s="7"/>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="40" customHeight="1">
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D4:D17"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="15">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B11"/>
     <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D15:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cookie/SameSite/SameSite.xlsx
+++ b/Cookie/SameSite/SameSite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kanakaya\git\202x\Cookie\SameSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD28ADB4-011D-4870-A334-637E0D81B70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC503C0-4C01-4961-AF2F-AA81146CA8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,21 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -60,10 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(n/a)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Chrome 117</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -94,10 +101,6 @@
   </si>
   <si>
     <t>to</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>reload</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -183,6 +186,14 @@
     <t>click link
 @
 you.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+ reload</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -236,7 +247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,38 +324,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,7 +694,7 @@
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -691,349 +702,349 @@
     <col min="2" max="2" width="15.58203125" customWidth="1"/>
     <col min="3" max="3" width="33.58203125" customWidth="1"/>
     <col min="4" max="4" width="15.58203125" customWidth="1"/>
-    <col min="5" max="5" width="12.58203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
     <col min="6" max="6" width="6.58203125" customWidth="1"/>
     <col min="7" max="8" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="60" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" ht="40" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="40" customHeight="1">
+      <c r="B4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="40" customHeight="1">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="40" customHeight="1">
+      <c r="B6" s="6"/>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="40" customHeight="1">
+      <c r="B7" s="6"/>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="60" customHeight="1">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="40" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="40" customHeight="1">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="40" customHeight="1">
-      <c r="B6" s="7"/>
-      <c r="C6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="40" customHeight="1">
-      <c r="B7" s="7"/>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="60" customHeight="1">
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="2:8" ht="40" customHeight="1">
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="40" customHeight="1">
+      <c r="B11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="40" customHeight="1">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="40" customHeight="1">
+      <c r="B13" s="6"/>
+      <c r="C13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="40" customHeight="1">
+      <c r="B14" s="6"/>
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="40" customHeight="1">
+      <c r="B15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="40" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="40" customHeight="1">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="40" customHeight="1">
-      <c r="B13" s="7"/>
-      <c r="C13" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="40" customHeight="1">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="40" customHeight="1">
+      <c r="B17" s="6"/>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="40" customHeight="1">
+      <c r="B18" s="6"/>
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="40" customHeight="1">
-      <c r="B14" s="7"/>
-      <c r="C14" s="2" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="40" customHeight="1">
+      <c r="B19" s="6"/>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="40" customHeight="1">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="40" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="40" customHeight="1">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="40" customHeight="1">
-      <c r="B17" s="7"/>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="40" customHeight="1">
-      <c r="B18" s="7"/>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="6" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="40" customHeight="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="40" customHeight="1">
-      <c r="B20" s="7"/>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>13</v>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Cookie/SameSite/SameSite.xlsx
+++ b/Cookie/SameSite/SameSite.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kanakaya\git\202x\Cookie\SameSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC503C0-4C01-4961-AF2F-AA81146CA8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FF1FF6-EFA8-4D8A-8821-ED37719F27C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="795" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="GET" sheetId="4" r:id="rId1"/>
+    <sheet name="POST" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,35 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
-  <si>
-    <t>me.example --- you.example [HTTP Redirection] --- me.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>you.example --- me.example [HTTP Redirection] --- me.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>me.example --- you.example [Client Pull] --- me.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>you.example --- [Client Pull] --- me.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>me.example --- me.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>you.example --- me.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>navigation start</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="46">
   <si>
     <t>me.example</t>
     <phoneticPr fontId="1"/>
@@ -76,10 +48,6 @@
   </si>
   <si>
     <t>Firefox 117</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>top level navigation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -165,15 +133,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Clinet Pull @ you.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>HTTP Redirect @ me.example</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Clinet Pull @ me.example</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -195,6 +155,61 @@
   <si>
     <t>+ reload</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top level navigation (GET)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top level navigation (POST)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cookie (SameSite=lax)
+for me.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>location.href @ me.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>location.href @ you.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form.submit @ me.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>form.submit @ you.example</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>5-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
   </si>
 </sst>
 </file>
@@ -252,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -312,11 +327,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,29 +410,47 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,54 +731,437 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G10:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05065A9-D3A0-4675-BAF2-F56538CEFF3F}">
+  <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="7" max="7" width="62.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="7:7">
-      <c r="G10" t="s">
+    <row r="2" spans="2:10" ht="60" customHeight="1">
+      <c r="B2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="7:7">
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="7:7">
-      <c r="G12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="7:7">
-      <c r="G13" t="s">
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="7:7">
-      <c r="G14" t="s">
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="7"/>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="9" spans="2:10" ht="60" customHeight="1">
+      <c r="B9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="7:7">
-      <c r="G15" t="s">
+      <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="7:7">
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
+      <c r="I10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B13" s="7"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B14" s="7"/>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B17" s="7"/>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B18" s="7"/>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B19" s="7"/>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I4:J7"/>
+    <mergeCell ref="I11:J20"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -691,379 +1169,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E1EE65-A03D-4505-8A39-DE9BE2D7984B}">
-  <dimension ref="B2:H20"/>
+  <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="3" width="33.58203125" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" customWidth="1"/>
-    <col min="6" max="6" width="6.58203125" customWidth="1"/>
-    <col min="7" max="8" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="60" customHeight="1">
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="2:8" ht="40" customHeight="1">
+    <row r="2" spans="2:10" ht="60" customHeight="1">
+      <c r="B2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" ht="39.950000000000003" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="18"/>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="40" customHeight="1">
-      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="40" customHeight="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="40" customHeight="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="40" customHeight="1">
-      <c r="B7" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="60" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="2:8" ht="40" customHeight="1">
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="40" customHeight="1">
-      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B10" s="7"/>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B11" s="7"/>
+      <c r="C11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="40" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="40" customHeight="1">
-      <c r="B13" s="6"/>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="40" customHeight="1">
-      <c r="B14" s="6"/>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="40" customHeight="1">
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="40" customHeight="1">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="40" customHeight="1">
-      <c r="B17" s="6"/>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="40" customHeight="1">
-      <c r="B18" s="6"/>
-      <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="40" customHeight="1">
-      <c r="B19" s="6"/>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="40" customHeight="1">
-      <c r="B20" s="6"/>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="10">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D8:D11"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D15:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cookie/SameSite/SameSite.xlsx
+++ b/Cookie/SameSite/SameSite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kanakaya\git\202x\Cookie\SameSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FF1FF6-EFA8-4D8A-8821-ED37719F27C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FB7359-66B3-408D-85BB-2248325736A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5055" yWindow="795" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
   <si>
     <t>me.example</t>
     <phoneticPr fontId="1"/>
@@ -210,6 +210,14 @@
   </si>
   <si>
     <t>5-4</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(n/a)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -393,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,6 +422,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,8 +460,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,7 +752,7 @@
   <dimension ref="B2:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B15" sqref="B15:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -749,21 +766,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="60" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="2:10" ht="39.950000000000003" customHeight="1">
       <c r="B3" s="1" t="s">
@@ -772,10 +789,10 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
@@ -793,13 +810,13 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -814,15 +831,15 @@
       <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
@@ -835,15 +852,15 @@
       <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
@@ -856,15 +873,15 @@
       <c r="H6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
@@ -877,25 +894,25 @@
       <c r="H7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="9" spans="2:10" ht="60" customHeight="1">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="8" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="2:10" ht="39.950000000000003" customHeight="1">
       <c r="B10" s="1" t="s">
@@ -904,10 +921,10 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,13 +942,13 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -946,15 +963,15 @@
       <c r="H11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
@@ -967,15 +984,15 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
@@ -988,15 +1005,15 @@
       <c r="H13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1009,17 +1026,17 @@
       <c r="H14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1034,13 +1051,13 @@
       <c r="H15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
         <v>30</v>
       </c>
@@ -1053,15 +1070,15 @@
       <c r="H16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1074,15 +1091,15 @@
       <c r="H17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1095,15 +1112,15 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
@@ -1116,15 +1133,15 @@
       <c r="H19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1137,17 +1154,11 @@
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D20"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I4:J7"/>
@@ -1161,6 +1172,12 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1169,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E1EE65-A03D-4505-8A39-DE9BE2D7984B}">
-  <dimension ref="B2:J11"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1186,21 +1203,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="60" customHeight="1">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="2:10" ht="39.950000000000003" customHeight="1">
       <c r="B3" s="1" t="s">
@@ -1209,10 +1226,10 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1230,13 +1247,13 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1259,9 +1276,9 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1282,11 +1299,11 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1307,11 +1324,11 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1331,122 +1348,197 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B8" s="19" t="s">
+    <row r="9" spans="2:10" ht="60" customHeight="1">
+      <c r="B9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5" t="s">
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="7"/>
-      <c r="C10" s="2" t="s">
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B13" s="8"/>
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="39.950000000000003" customHeight="1">
-      <c r="B11" s="7"/>
-      <c r="C11" s="2" t="s">
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B14" s="8"/>
+      <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="G14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="39.950000000000003" customHeight="1">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D11:D14"/>
     <mergeCell ref="D4:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F15" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>